--- a/academias/Humanidades - Estadisticos 2020.xlsx
+++ b/academias/Humanidades - Estadisticos 2020.xlsx
@@ -458,6 +458,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -894,6 +895,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1297,6 +1299,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Humanidades - Estadisticos 2020.xlsx
+++ b/academias/Humanidades - Estadisticos 2020.xlsx
@@ -1171,22 +1171,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1203,22 +1206,25 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>27.27</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>72.73</v>
+      </c>
+      <c r="I10">
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1596,19 +1602,19 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>27.78</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1643,7 +1649,7 @@
         <v>59.09</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/academias/Humanidades - Estadisticos 2020.xlsx
+++ b/academias/Humanidades - Estadisticos 2020.xlsx
@@ -947,22 +947,25 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>7.9</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -979,22 +982,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>33.33</v>
+      </c>
+      <c r="I3">
+        <v>6.6</v>
       </c>
       <c r="J3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1011,22 +1017,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>14.29</v>
+      </c>
+      <c r="I4">
+        <v>7.4</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1171,25 +1180,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>66.67</v>
+        <v>72.22</v>
       </c>
       <c r="H9">
-        <v>33.33</v>
+        <v>27.78</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>27.78</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1206,25 +1215,25 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="H10">
-        <v>72.73</v>
+        <v>63.64</v>
       </c>
       <c r="I10">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>68.18000000000001</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1241,22 +1250,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>73.53</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>26.47</v>
+      </c>
+      <c r="I11">
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1273,22 +1285,25 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>57.14</v>
+      </c>
+      <c r="I12">
+        <v>7.5</v>
       </c>
       <c r="J12">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>51.43</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1404,7 +1419,7 @@
         <v>33.33</v>
       </c>
       <c r="I3">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1707,19 +1722,19 @@
         <v>35</v>
       </c>
       <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
         <v>17</v>
       </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
       <c r="G12">
+        <v>51.43</v>
+      </c>
+      <c r="H12">
         <v>48.57</v>
       </c>
-      <c r="H12">
-        <v>51.43</v>
-      </c>
       <c r="I12">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J12">
         <v>0</v>

--- a/academias/Humanidades - Estadisticos 2020.xlsx
+++ b/academias/Humanidades - Estadisticos 2020.xlsx
@@ -615,25 +615,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,25 +650,25 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H6">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
       <c r="I6">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1052,22 +1052,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>52.78</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>47.22</v>
+      </c>
+      <c r="I5">
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1084,22 +1087,25 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>73.08</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>26.92</v>
+      </c>
+      <c r="I6">
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1148,22 +1154,25 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>68.18000000000001</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>68.18000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1477,25 +1486,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
       <c r="I5">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>36.11</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1512,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H6">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
       <c r="I6">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>34.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1594,7 +1603,7 @@
         <v>45.45</v>
       </c>
       <c r="I8">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J8">
         <v>10</v>

--- a/academias/Humanidades - Estadisticos 2020.xlsx
+++ b/academias/Humanidades - Estadisticos 2020.xlsx
@@ -1122,22 +1122,25 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>48.28</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>51.72</v>
+      </c>
+      <c r="I7">
+        <v>8.800000000000001</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1568,7 +1571,7 @@
         <v>51.72</v>
       </c>
       <c r="I7">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7">
         <v>15</v>
